--- a/Documentation/Burndown Chart Sprint 2.xlsx
+++ b/Documentation/Burndown Chart Sprint 2.xlsx
@@ -8,8 +8,6 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
@@ -274,6 +272,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -286,8 +286,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -925,10 +923,10 @@
                   <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>8</c:v>
@@ -1045,10 +1043,10 @@
                   <c:v>65</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>40</c:v>
@@ -1089,8 +1087,8 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-1063009216"/>
-        <c:axId val="-892263248"/>
+        <c:axId val="267854384"/>
+        <c:axId val="267847856"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredLineSeries>
@@ -1200,7 +1198,7 @@
                 <c:order val="6"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!#REF!</c15:sqref>
@@ -1217,7 +1215,7 @@
                 </c:tx>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$B$2:$P$2</c15:sqref>
@@ -1276,7 +1274,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!#REF!</c15:sqref>
@@ -1301,7 +1299,7 @@
                 <c:order val="7"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!#REF!</c15:sqref>
@@ -1318,7 +1316,7 @@
                 </c:tx>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$B$2:$P$2</c15:sqref>
@@ -1377,7 +1375,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!#REF!</c15:sqref>
@@ -1400,7 +1398,7 @@
         </c:extLst>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1063009216"/>
+        <c:axId val="267854384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1411,7 +1409,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-892263248"/>
+        <c:crossAx val="267847856"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1419,7 +1417,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-892263248"/>
+        <c:axId val="267847856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1449,7 +1447,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-1063009216"/>
+        <c:crossAx val="267854384"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1796,7 +1794,7 @@
   <dimension ref="A1:P8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1805,70 +1803,70 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
-      <c r="J1" s="11"/>
-      <c r="K1" s="11"/>
-      <c r="L1" s="11"/>
-      <c r="M1" s="11"/>
-      <c r="N1" s="11"/>
-      <c r="O1" s="11"/>
-      <c r="P1" s="12"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
+      <c r="J1" s="13"/>
+      <c r="K1" s="13"/>
+      <c r="L1" s="13"/>
+      <c r="M1" s="13"/>
+      <c r="N1" s="13"/>
+      <c r="O1" s="13"/>
+      <c r="P1" s="14"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="13">
+      <c r="C2" s="9">
         <v>41727</v>
       </c>
-      <c r="D2" s="13">
+      <c r="D2" s="9">
         <v>41728</v>
       </c>
-      <c r="E2" s="13">
+      <c r="E2" s="9">
         <v>41729</v>
       </c>
-      <c r="F2" s="13">
+      <c r="F2" s="9">
         <v>41730</v>
       </c>
-      <c r="G2" s="13">
+      <c r="G2" s="9">
         <v>41731</v>
       </c>
-      <c r="H2" s="13">
+      <c r="H2" s="9">
         <v>41732</v>
       </c>
-      <c r="I2" s="13">
+      <c r="I2" s="9">
         <v>41733</v>
       </c>
-      <c r="J2" s="13">
+      <c r="J2" s="9">
         <v>41734</v>
       </c>
-      <c r="K2" s="13">
+      <c r="K2" s="9">
         <v>41735</v>
       </c>
-      <c r="L2" s="13">
+      <c r="L2" s="9">
         <v>41736</v>
       </c>
-      <c r="M2" s="13">
+      <c r="M2" s="9">
         <v>41737</v>
       </c>
-      <c r="N2" s="13">
+      <c r="N2" s="9">
         <v>41738</v>
       </c>
-      <c r="O2" s="13">
+      <c r="O2" s="9">
         <v>41739</v>
       </c>
-      <c r="P2" s="14">
+      <c r="P2" s="10">
         <v>41740</v>
       </c>
     </row>
@@ -2092,10 +2090,10 @@
         <v>13</v>
       </c>
       <c r="G7" s="1">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="H7" s="1">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I7" s="1">
         <v>8</v>
@@ -2128,59 +2126,59 @@
       </c>
       <c r="B8" s="8"/>
       <c r="C8" s="5">
-        <f>SUM(C3:C7)</f>
+        <f t="shared" ref="C8:P8" si="0">SUM(C3:C7)</f>
         <v>80</v>
       </c>
       <c r="D8" s="5">
-        <f>SUM(D3:D7)</f>
+        <f t="shared" si="0"/>
         <v>80</v>
       </c>
       <c r="E8" s="5">
-        <f>SUM(E3:E7)</f>
+        <f t="shared" si="0"/>
         <v>80</v>
       </c>
       <c r="F8" s="5">
-        <f>SUM(F3:F7)</f>
+        <f t="shared" si="0"/>
         <v>65</v>
       </c>
       <c r="G8" s="5">
-        <f>SUM(G3:G7)</f>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>12</v>
       </c>
       <c r="H8" s="5">
-        <f>SUM(H3:H7)</f>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>10</v>
       </c>
       <c r="I8" s="5">
-        <f>SUM(I3:I7)</f>
+        <f t="shared" si="0"/>
         <v>40</v>
       </c>
       <c r="J8" s="5">
-        <f>SUM(J3:J7)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K8" s="5">
-        <f>SUM(K3:K7)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L8" s="5">
-        <f>SUM(L3:L7)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M8" s="5">
-        <f>SUM(M3:M7)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="N8" s="5">
-        <f>SUM(N3:N7)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="O8" s="5">
-        <f>SUM(O3:O7)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="P8" s="6">
-        <f>SUM(P3:P7)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -2191,28 +2189,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/Documentation/Burndown Chart Sprint 2.xlsx
+++ b/Documentation/Burndown Chart Sprint 2.xlsx
@@ -932,16 +932,16 @@
                   <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>0</c:v>
@@ -1052,16 +1052,16 @@
                   <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>0</c:v>
@@ -1087,8 +1087,8 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="267854384"/>
-        <c:axId val="267847856"/>
+        <c:axId val="1531626224"/>
+        <c:axId val="1531623504"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredLineSeries>
@@ -1398,7 +1398,7 @@
         </c:extLst>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="267854384"/>
+        <c:axId val="1531626224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1409,7 +1409,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="267847856"/>
+        <c:crossAx val="1531623504"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1417,7 +1417,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="267847856"/>
+        <c:axId val="1531623504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1447,7 +1447,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="267854384"/>
+        <c:crossAx val="1531626224"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1794,7 +1794,7 @@
   <dimension ref="A1:P8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+      <selection activeCell="N7" sqref="N7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2099,16 +2099,16 @@
         <v>8</v>
       </c>
       <c r="J7" s="1">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="K7" s="1">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="L7" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="M7" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N7" s="1">
         <v>0</v>
@@ -2155,19 +2155,19 @@
       </c>
       <c r="J8" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="K8" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="L8" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="M8" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N8" s="5">
         <f t="shared" si="0"/>

--- a/Documentation/Burndown Chart Sprint 2.xlsx
+++ b/Documentation/Burndown Chart Sprint 2.xlsx
@@ -944,10 +944,10 @@
                   <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>0</c:v>
@@ -1064,10 +1064,10 @@
                   <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>0</c:v>
@@ -1087,8 +1087,8 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1531626224"/>
-        <c:axId val="1531623504"/>
+        <c:axId val="-2054643232"/>
+        <c:axId val="-2054642688"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredLineSeries>
@@ -1398,7 +1398,7 @@
         </c:extLst>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1531626224"/>
+        <c:axId val="-2054643232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1409,7 +1409,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1531623504"/>
+        <c:crossAx val="-2054642688"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1417,7 +1417,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1531623504"/>
+        <c:axId val="-2054642688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1447,7 +1447,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1531626224"/>
+        <c:crossAx val="-2054643232"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1794,7 +1794,7 @@
   <dimension ref="A1:P8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N7" sqref="N7"/>
+      <selection activeCell="N10" sqref="N10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2111,10 +2111,10 @@
         <v>4</v>
       </c>
       <c r="N7" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P7" s="3">
         <v>0</v>
@@ -2171,11 +2171,11 @@
       </c>
       <c r="N8" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O8" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P8" s="6">
         <f t="shared" si="0"/>
